--- a/doc/api_mapping.xlsx
+++ b/doc/api_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taygan/Documents/Developer/purviewcli/purviewcli/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99F0CC1-2F9E-0444-9BD7-DA862E589A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C5DE1-D943-E141-92E0-A3CBC5A58055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -3102,9 +3102,6 @@
     <t>pv entity addLabels --guid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
   </si>
   <si>
-    <t>pv entity deleteLabels --guid=&lt;val&gt;</t>
-  </si>
-  <si>
     <t>pv entity setLabels --guid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
   </si>
   <si>
@@ -3115,6 +3112,9 @@
   </si>
   <si>
     <t>pv entity setLabelsByUniqueAttribute --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
+  </si>
+  <si>
+    <t>pv entity deleteLabels --guid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
   </si>
 </sst>
 </file>
@@ -3751,7 +3751,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3787,16 +3787,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3843,127 +3838,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -4225,6 +4100,46 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4239,23 +4154,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F11FDB1-5E01-487A-9C37-FAA9F7174453}" name="Table1" displayName="Table1" ref="A1:K199" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:K199" xr:uid="{7F11FDB1-5E01-487A-9C37-FAA9F7174453}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F11FDB1-5E01-487A-9C37-FAA9F7174453}" name="Table1" displayName="Table1" ref="A1:K199" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K199">
     <sortCondition ref="H1:H199"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{87EB5FFA-5DF0-4B94-BF81-FC009D6463B2}" name="ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7924792E-FE42-4479-B48B-F5BE66B74CB2}" name="H1" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{58F5661A-03C7-4BC2-8B19-2C0C541A692C}" name="H2" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{982580AD-224D-43FC-9E13-2D4C03B80920}" name="H3" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{8846B3E0-E6D0-4069-97FD-9F2A2295AB08}" name="DESCRIPTION" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{B182668B-622A-477A-8A1A-5BBFD75F305A}" name="DOCUMENTATION" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{59A849C9-9B58-4DDD-8588-D6463C2864C7}" name="METHOD" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{0F299357-521B-43E5-9B71-A55AA4CDF468}" name="ENDPOINT" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{4ACDF120-F277-4CCA-A233-63A53A220CF5}" name="API_VERSION" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{DFCF8009-8B07-4BAC-B0DC-08B99BADF19D}" name="PARAMS" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{06B6125B-6314-49C0-AC81-EA26DAEE9302}" name="PURVIEWCLI" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{87EB5FFA-5DF0-4B94-BF81-FC009D6463B2}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7924792E-FE42-4479-B48B-F5BE66B74CB2}" name="H1" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{58F5661A-03C7-4BC2-8B19-2C0C541A692C}" name="H2" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{982580AD-224D-43FC-9E13-2D4C03B80920}" name="H3" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8846B3E0-E6D0-4069-97FD-9F2A2295AB08}" name="DESCRIPTION" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B182668B-622A-477A-8A1A-5BBFD75F305A}" name="DOCUMENTATION" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{59A849C9-9B58-4DDD-8588-D6463C2864C7}" name="METHOD" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{0F299357-521B-43E5-9B71-A55AA4CDF468}" name="ENDPOINT" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{4ACDF120-F277-4CCA-A233-63A53A220CF5}" name="API_VERSION" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{DFCF8009-8B07-4BAC-B0DC-08B99BADF19D}" name="PARAMS" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{06B6125B-6314-49C0-AC81-EA26DAEE9302}" name="PURVIEWCLI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4571,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5344,10 +5258,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -5359,7 +5273,7 @@
       <c r="F23" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -5375,10 +5289,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -5390,7 +5304,7 @@
       <c r="F24" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -5510,10 +5424,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -5525,7 +5439,7 @@
       <c r="F28" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -5543,10 +5457,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -5558,7 +5472,7 @@
       <c r="F29" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -5574,10 +5488,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -5589,7 +5503,7 @@
       <c r="F30" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -5605,10 +5519,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -5620,7 +5534,7 @@
       <c r="F31" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -5840,10 +5754,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -5855,7 +5769,7 @@
       <c r="F38" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -5871,10 +5785,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -5886,7 +5800,7 @@
       <c r="F39" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="5" t="s">
@@ -5902,10 +5816,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -5917,7 +5831,7 @@
       <c r="F40" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -6137,10 +6051,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -6152,7 +6066,7 @@
       <c r="F47" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -6170,10 +6084,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -6185,7 +6099,7 @@
       <c r="F48" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -6203,10 +6117,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>489</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -6218,7 +6132,7 @@
       <c r="F49" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -10360,7 +10274,7 @@
       <c r="H178" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="I178" s="25" t="s">
+      <c r="I178" s="24" t="s">
         <v>278</v>
       </c>
       <c r="J178" s="3"/>
@@ -10394,7 +10308,7 @@
       <c r="H179" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I179" s="24" t="s">
+      <c r="I179" s="23" t="s">
         <v>278</v>
       </c>
       <c r="J179" s="2"/>
@@ -10428,7 +10342,7 @@
       <c r="H180" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I180" s="24" t="s">
+      <c r="I180" s="23" t="s">
         <v>278</v>
       </c>
       <c r="J180" s="2"/>
@@ -10460,7 +10374,7 @@
       <c r="H181" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I181" s="24" t="s">
+      <c r="I181" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J181" s="2" t="s">
@@ -10494,7 +10408,7 @@
       <c r="H182" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I182" s="24" t="s">
+      <c r="I182" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J182" s="2"/>
@@ -10526,7 +10440,7 @@
       <c r="H183" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I183" s="24" t="s">
+      <c r="I183" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J183" s="2" t="s">
@@ -10560,7 +10474,7 @@
       <c r="H184" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I184" s="24" t="s">
+      <c r="I184" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J184" s="2"/>
@@ -10592,7 +10506,7 @@
       <c r="H185" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I185" s="26" t="s">
+      <c r="I185" s="25" t="s">
         <v>609</v>
       </c>
       <c r="J185" s="4"/>
@@ -10624,7 +10538,7 @@
       <c r="H186" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I186" s="24" t="s">
+      <c r="I186" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J186" s="2"/>
@@ -10656,7 +10570,7 @@
       <c r="H187" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I187" s="24" t="s">
+      <c r="I187" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J187" s="2"/>
@@ -10688,7 +10602,7 @@
       <c r="H188" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I188" s="24" t="s">
+      <c r="I188" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J188" s="2"/>
@@ -10720,7 +10634,7 @@
       <c r="H189" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I189" s="24" t="s">
+      <c r="I189" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J189" s="2"/>
@@ -10752,7 +10666,7 @@
       <c r="H190" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I190" s="24" t="s">
+      <c r="I190" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J190" s="2"/>
@@ -10784,7 +10698,7 @@
       <c r="H191" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I191" s="24" t="s">
+      <c r="I191" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J191" s="2"/>
@@ -10816,7 +10730,7 @@
       <c r="H192" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I192" s="24" t="s">
+      <c r="I192" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J192" s="2"/>
@@ -10845,10 +10759,10 @@
       <c r="G193" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H193" s="30" t="s">
+      <c r="H193" t="s">
         <v>54</v>
       </c>
-      <c r="I193" s="24" t="s">
+      <c r="I193" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J193" s="2"/>
@@ -10880,7 +10794,7 @@
       <c r="H194" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I194" s="24" t="s">
+      <c r="I194" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J194" s="2"/>
@@ -10909,10 +10823,10 @@
       <c r="G195" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H195" s="29" t="s">
+      <c r="H195" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I195" s="24" t="s">
+      <c r="I195" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J195" s="2"/>
@@ -10944,7 +10858,7 @@
       <c r="H196" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I196" s="24" t="s">
+      <c r="I196" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J196" s="2"/>
@@ -10976,7 +10890,7 @@
       <c r="H197" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I197" s="24" t="s">
+      <c r="I197" s="23" t="s">
         <v>609</v>
       </c>
       <c r="J197" s="2"/>
@@ -11008,7 +10922,7 @@
       <c r="H198" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I198" s="26" t="s">
+      <c r="I198" s="25" t="s">
         <v>609</v>
       </c>
       <c r="J198" s="4"/>
@@ -11040,7 +10954,7 @@
       <c r="H199" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="I199" s="26" t="s">
+      <c r="I199" s="25" t="s">
         <v>609</v>
       </c>
       <c r="J199" s="4"/>
@@ -11051,16 +10965,16 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G2:G199">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"PUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"DELETE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11080,8 +10994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946D3487-705C-4F00-B617-2E126542661E}">
   <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12495,7 +12409,7 @@
         <v>995</v>
       </c>
       <c r="B176" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -12503,7 +12417,7 @@
         <v>996</v>
       </c>
       <c r="B177" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -12511,7 +12425,7 @@
         <v>997</v>
       </c>
       <c r="B178" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -12519,7 +12433,7 @@
         <v>998</v>
       </c>
       <c r="B179" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -12527,7 +12441,7 @@
         <v>999</v>
       </c>
       <c r="B180" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>

--- a/doc/api_mapping.xlsx
+++ b/doc/api_mapping.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taygan/Documents/Developer/purviewcli/purviewcli/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarifat\Downloads\GitHub\purviewcli\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C5DE1-D943-E141-92E0-A3CBC5A58055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1DE5EB-A481-492E-9250-9593A35695FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="commands" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">commands!$B$1:$B$180</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">mapping!$E$1:$J$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="998">
   <si>
     <t>List the authorization keys associated with this account.</t>
   </si>
@@ -2436,456 +2434,6 @@
     <t>https://{accountName}.purview.azure.com/mapanddiscover/reports/scanstatus2/summariesbyts</t>
   </si>
   <si>
-    <t>pv account deleteCollection --collectionName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv account getChildCollectionNames --collectionName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv account getCollection --collectionName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv account getCollectionPath --collectionName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv account putCollection --friendlyName=&lt;val&gt; --parentCollection=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv account putResourceSetRule --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv account regenerateAccessKeys --keyType=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv account updateAccount --friendlyName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity changeCollection --collection=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity create --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity createBulk --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity createBulkClassification --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity createBulkSetClassifications --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity createClassifications --guid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity createOrUpdateCollection --collection=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity createOrUpdateCollectionBulk --collection=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity createUniqueAttributeClassifications --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity delete --guid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity deleteBulk --guid=&lt;val&gt;...</t>
-  </si>
-  <si>
-    <t>pv entity deleteClassification --guid=&lt;val&gt; --classificationName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity deleteUniqueAttribute --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity deleteUniqueAttributeClassification --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt; --classificationName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity put --guid=&lt;val&gt; --attrName=&lt;val&gt; --attrValue=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity putClassifications --guid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity putUniqueAttribute --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity putUniqueAttributeClassifications --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity read --guid=&lt;val&gt; [--ignoreRelationships --minExtInfo]</t>
-  </si>
-  <si>
-    <t>pv entity readBulk --guid=&lt;val&gt;... [--ignoreRelationships --minExtInfo]</t>
-  </si>
-  <si>
-    <t>pv entity readBulkUniqueAttribute --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt;... [--ignoreRelationships --minExtInfo]</t>
-  </si>
-  <si>
-    <t>pv entity readClassification --guid=&lt;val&gt; --classificationName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity readClassifications --guid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity readHeader --guid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity readUniqueAttribute --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt; [--ignoreRelationships --minExtInfo]</t>
-  </si>
-  <si>
-    <t>pv glossary create --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary createCategories --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary createCategory --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary createTerm --payloadFile=&lt;val&gt; [--includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary createTerms --payloadFile=&lt;val&gt; [--includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary createTermsAssignedEntities --termGuid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary createTermsExport --glossaryGuid=&lt;val&gt; --termGuid=&lt;val&gt;... [--includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary createTermsImport --glossaryFile=&lt;val&gt; [--glossaryGuid=&lt;val&gt; --includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary delete --glossaryGuid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary deleteCategory --categoryGuid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary deleteTerm --termGuid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary deleteTermsAssignedEntities --termGuid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary put --glossaryGuid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary putCategory --categoryGuid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary putCategoryPartial --categoryGuid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary putPartial --glossaryGuid=&lt;val&gt; --payloadFile=&lt;val&gt; [--includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary putTerm --termGuid=&lt;val&gt; --payloadFile=&lt;val&gt; [--includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary putTermPartial --termGuid=&lt;val&gt; --payloadFile=&lt;val&gt; [--includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary putTermsAssignedEntities --termGuid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary read [--glossaryGuid=&lt;val&gt; --limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt; --ignoreTermsAndCategories]</t>
-  </si>
-  <si>
-    <t>pv glossary readCategories --glossaryGuid=&lt;val&gt; [--limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv glossary readCategoriesHeaders --glossaryGuid=&lt;val&gt; [--limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv glossary readCategory --categoryGuid=&lt;val&gt; [--limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv glossary readCategoryRelated --categoryGuid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary readCategoryTerms --categoryGuid=&lt;val&gt; [--limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv glossary readDetailed --glossaryGuid=&lt;val&gt; [--includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary readTerm --termGuid=&lt;val&gt; [--includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary readTerms [--glossaryGuid=&lt;val&gt; --limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt; --extInfo --includeTermHierarchy]</t>
-  </si>
-  <si>
-    <t>pv glossary readTermsAssignedEntities --termGuid=&lt;val&gt; [--limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv glossary readTermsHeaders --glossaryGuid=&lt;val&gt; [--limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv glossary readTermsImport --operationGuid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv glossary readTermsRelated --termGuid=&lt;val&gt; [--limit=&lt;val&gt; --offset=&lt;val&gt; --sort=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv insight scanStatusSummary [--numberOfDays=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv insight scanStatusSummaryByTs [--numberOfDays=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv lineage read --guid=&lt;val&gt; [--depth=&lt;val&gt; --width=&lt;val&gt; --direction=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv lineage readNext --guid=&lt;val&gt; [--direction&lt;val&gt; --offset=&lt;val&gt; --limit=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv management addRootCollectionAdmin --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt; --objectId=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management checkNameAvailability --subscriptionId=&lt;val&gt; --accountName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management createAccount --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management defaultAccount --scopeTenantId=&lt;val&gt; --scopeType=&lt;val&gt; --scope=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management deleteAccount --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management deletePrivateEndpoint --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt; --privateEndpointConnectionName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management listKeys --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management listPrivateLinkResources --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt; [--groupId=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv management putPrivateEndpoint --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt; --privateEndpointConnectionName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management readAccount --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management readAccounts --subscriptionId=&lt;val&gt; [--resourceGroupName=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv management readPrivateEndpoint --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt; --privateEndpointConnectionName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management readPrivateEndpoints --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management removeDefaultAccount --scopeTenantId=&lt;val&gt; --scopeType=&lt;val&gt; --scope=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management setDefaultAccount --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt; --scopeTenantId=&lt;val&gt; --scopeType=&lt;val&gt; --scope=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv management updateAccount --subscriptionId=&lt;val&gt; --resourceGroupName=&lt;val&gt; --accountName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv policystore deleteDataPolicy --policyName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv policystore deleteDataPolicyScope --policyName=&lt;val&gt; --datasource=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv policystore putDataPolicy --policyName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv policystore putDataPolicyScope --policyName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv policystore putMetadataPolicy --policyId=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv policystore readDataPolicies [--policyName=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv policystore readDataPolicyScopes --policyName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv policystore readMetadataPolicy (--collectionName=&lt;val&gt; | --policyId=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>pv relationship create --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv relationship delete --guid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv relationship put --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv relationship read --guid=&lt;val&gt; [--extendedInfo]</t>
-  </si>
-  <si>
-    <t>pv scan cancelScan --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt; --runId=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan deleteClassificationRule --classificationRuleName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan deleteCredential --credentialName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan deleteDataSource --dataSourceName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan deleteKeyVault --keyVaultName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan deleteScan --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan deleteScanRuleset --scanRulesetName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan deleteTrigger --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan putClassificationRule --classificationRuleName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan putCredential --credentialName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan putDataSource --dataSourceName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan putFilter --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan putKeyVault --keyVaultName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan putScan --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan putScanRuleset --scanRulesetName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan putTrigger --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readClassificationRule --classificationRuleName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readClassificationRuleVersions --classificationRuleName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readCredential [--credentialName=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv scan readDataSource --dataSourceName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readDataSources [--collectionName=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv scan readFilters --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readKeyVault --keyVaultName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readScan --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readScanHistory --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readScanRuleset --scanRulesetName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readScans --dataSourceName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readSystemScanRuleset --dataSourceType=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readSystemScanRulesetLatest --dataSourceType=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readSystemScanRulesetVersion --version=&lt;val&gt; --dataSourceType=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readSystemScanRulesetVersions --dataSourceType=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan readTrigger --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv scan runScan --dataSourceName=&lt;val&gt; --scanName=&lt;val&gt; [--scanLevel=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv scan tagClassificationVersion --classificationRuleName=&lt;val&gt; --classificationRuleVersion=&lt;val&gt; --action=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv search autoComplete [--keywords=&lt;val&gt; --limit=&lt;val&gt; --filterFile=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv search browse  (--entityType=&lt;val&gt; | --path=&lt;val&gt;) [--limit=&lt;val&gt; --offset=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv search query [--keywords=&lt;val&gt; --limit=&lt;val&gt; --offset=&lt;val&gt; --filterFile=&lt;val&gt; --facets-file=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv search suggest [--keywords=&lt;val&gt; --limit=&lt;val&gt; --filterFile=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv types createTypeDefs --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv types deleteTypeDef --name=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv types deleteTypeDefs --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv types putTypeDefs --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv types readClassificationDef (--guid=&lt;val&gt; | --name=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>pv types readEntityDef (--guid=&lt;val&gt; | --name=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>pv types readEnumDef (--guid=&lt;val&gt; | --name=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>pv types readRelationshipDef (--guid=&lt;val&gt; | --name=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>pv types readStructDef (--guid=&lt;val&gt; | --name=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>pv types readTermTemplateDef (--guid=&lt;val&gt; | --name=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>pv types readTypeDef (--guid=&lt;val&gt; | --name=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>pv types readTypeDefs [--includeTermTemplate --type=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>pv types readTypeDefsHeaders [--includeTermTemplate --type=&lt;val&gt;]</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
     <t>Add Label</t>
   </si>
   <si>
@@ -3084,37 +2632,403 @@
     <t>https://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}/labels</t>
   </si>
   <si>
-    <t>pv entity importBusinessMetadata --bmFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity addOrUpdateBusinessMetadata --guid=&lt;val&gt; --payloadFile=&lt;val&gt; [--isOverwrite]</t>
-  </si>
-  <si>
-    <t>pv entity deleteBusinessMetadata --guid=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity addOrUpdateBusinessAttribute --guid=&lt;val&gt; --payloadFile=&lt;val&gt; --bmName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity deleteBusinessAttribute --guid=&lt;val&gt; --bmName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity addLabels --guid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity setLabels --guid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity addLabelsByUniqueAttribute --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity deleteLabelsByUniqueAttribute --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity setLabelsByUniqueAttribute --typeName=&lt;val&gt; --qualifiedName=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
-  </si>
-  <si>
-    <t>pv entity deleteLabels --guid=&lt;val&gt; --payloadFile=&lt;val&gt;</t>
+    <t>Accepted Sent Shares</t>
+  </si>
+  <si>
+    <t>List of accepted shares for the current sent share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/accepted-sent-shares/list</t>
+  </si>
+  <si>
+    <t>Get an accepted share with acceptedSentShareName to a particular sent share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/accepted-sent-shares/get</t>
+  </si>
+  <si>
+    <t>Reinstate</t>
+  </si>
+  <si>
+    <t>Reinstate a revoked accepted sent share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/accepted-sent-shares/reinstate</t>
+  </si>
+  <si>
+    <t>Revoke</t>
+  </si>
+  <si>
+    <t>Revoke an accepted sent share's access</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/accepted-sent-shares/revoke</t>
+  </si>
+  <si>
+    <t>Update Expiration</t>
+  </si>
+  <si>
+    <t>Update the expiration date of an active accepted sent share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/accepted-sent-shares/update-expiration</t>
+  </si>
+  <si>
+    <t>Asset Mappings</t>
+  </si>
+  <si>
+    <t>List AssetMappings in a received share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/asset-mappings/list</t>
+  </si>
+  <si>
+    <t>Maps a source asset in the sent share to a destination asset in the received share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/asset-mappings/create</t>
+  </si>
+  <si>
+    <t>Delete AssetMapping in a receivedShare.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/asset-mappings/delete</t>
+  </si>
+  <si>
+    <t>Get AssetMapping in a receivedShare.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/asset-mappings/get</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>List Assets in a share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/assets/list</t>
+  </si>
+  <si>
+    <t>Adds a new asset to an existing share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/assets/create</t>
+  </si>
+  <si>
+    <t>Delete asset in a sentShare.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/assets/delete</t>
+  </si>
+  <si>
+    <t>Get asset in a sentShare.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/assets/get</t>
+  </si>
+  <si>
+    <t>Email Registration</t>
+  </si>
+  <si>
+    <t>Activate</t>
+  </si>
+  <si>
+    <t>Activates the tenant and email combination using the activation code received.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/email-registration/activate</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Registers the tenant and email combination for activation.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/email-registration/register</t>
+  </si>
+  <si>
+    <t>Received Assets</t>
+  </si>
+  <si>
+    <t>List source asset of a received share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/received-assets/list</t>
+  </si>
+  <si>
+    <t>Received Invitations</t>
+  </si>
+  <si>
+    <t>Lists the received invitations.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/received-invitations/list</t>
+  </si>
+  <si>
+    <t>Gets the received invitation identified by name</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/received-invitations/get</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Rejects the received invitation identified by name</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/received-invitations/reject</t>
+  </si>
+  <si>
+    <t>Received Shares</t>
+  </si>
+  <si>
+    <t>Get a list of received shares.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/received-shares/list</t>
+  </si>
+  <si>
+    <t>Create a received share in the given account.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/received-shares/create</t>
+  </si>
+  <si>
+    <t>Deletes a received share</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/received-shares/delete</t>
+  </si>
+  <si>
+    <t>Get a received share by name.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/received-shares/get</t>
+  </si>
+  <si>
+    <t>Sent Share Invitations</t>
+  </si>
+  <si>
+    <t>List all Invitations in a share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/sent-share-invitations/list</t>
+  </si>
+  <si>
+    <t>Create/Update a sent share invitation in the given account.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/sent-share-invitations/create-or-update</t>
+  </si>
+  <si>
+    <t>Delete Invitation in a share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/sent-share-invitations/delete</t>
+  </si>
+  <si>
+    <t>Get Invitation for a given share.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/sent-share-invitations/get</t>
+  </si>
+  <si>
+    <t>Sent Shares</t>
+  </si>
+  <si>
+    <t>Get list of sent shares in the given Purview account.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/sent-shares/list</t>
+  </si>
+  <si>
+    <t>Create a sent share in the given Purview account.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/sent-shares/create-or-update</t>
+  </si>
+  <si>
+    <t>Deletes a sent share</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/sent-shares/delete</t>
+  </si>
+  <si>
+    <t>Get a sent share in the given Purview account.</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/rest/api/purview/sharedataplane/sent-shares/get</t>
+  </si>
+  <si>
+    <t>Share Data Plane</t>
+  </si>
+  <si>
+    <t>2021-09-01-preview</t>
+  </si>
+  <si>
+    <t>skipToken={skipToken}</t>
+  </si>
+  <si>
+    <t>skipToken={skipToken}&amp;$filter={$filter}&amp;$orderby={$orderby}</t>
+  </si>
+  <si>
+    <t>pv share listAcceptedShares</t>
+  </si>
+  <si>
+    <t>pv share getAcceptedShare</t>
+  </si>
+  <si>
+    <t>pv share reinstateAcceptedShare</t>
+  </si>
+  <si>
+    <t>pv share revokeAcceptedShare</t>
+  </si>
+  <si>
+    <t>pv share updateExpirationAcceptedShare</t>
+  </si>
+  <si>
+    <t>pv share listAssetMappings</t>
+  </si>
+  <si>
+    <t>pv share createAssetMapping</t>
+  </si>
+  <si>
+    <t>pv share deleteAssetMapping</t>
+  </si>
+  <si>
+    <t>pv share getAssetMapping</t>
+  </si>
+  <si>
+    <t>pv share listAssets</t>
+  </si>
+  <si>
+    <t>pv share deleteAsset</t>
+  </si>
+  <si>
+    <t>pv share createAsset</t>
+  </si>
+  <si>
+    <t>pv share getAsset</t>
+  </si>
+  <si>
+    <t>pv share activateEmail</t>
+  </si>
+  <si>
+    <t>pv share registerEmail</t>
+  </si>
+  <si>
+    <t>pv share listReceivedAssets</t>
+  </si>
+  <si>
+    <t>pv share listReceivedInvitations</t>
+  </si>
+  <si>
+    <t>pv share getReceivedInvitation</t>
+  </si>
+  <si>
+    <t>pv share rejectReceivedInvitation</t>
+  </si>
+  <si>
+    <t>pv share listReceivedShares</t>
+  </si>
+  <si>
+    <t>pv share createReceivedShare</t>
+  </si>
+  <si>
+    <t>pv share deleteReceivedShare</t>
+  </si>
+  <si>
+    <t>pv share getReceivedShare</t>
+  </si>
+  <si>
+    <t>pv share listSentInvitations</t>
+  </si>
+  <si>
+    <t>pv share createSentInvitation</t>
+  </si>
+  <si>
+    <t>pv share deleteSentInvitation</t>
+  </si>
+  <si>
+    <t>pv share getSentInvitation</t>
+  </si>
+  <si>
+    <t>pv share listSentShares</t>
+  </si>
+  <si>
+    <t>pv share createSentShare</t>
+  </si>
+  <si>
+    <t>pv share deleteSentShare</t>
+  </si>
+  <si>
+    <t>pv share getSentShare</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/acceptedSentShares</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/acceptedSentShares/{acceptedSentShareName}</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/acceptedSentShares/{acceptedSentShareName}:reinstate</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/acceptedSentShares/{acceptedSentShareName}:revoke</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/acceptedSentShares/{acceptedSentShareName}:update-expiration</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/receivedShares/{receivedShareName}/assetMappings</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/receivedShares/{receivedShareName}/assetMappings/{assetMappingName}</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/assets</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/assets/{assetName}</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/activateEmail</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/registerEmail</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/receivedShares/{receivedShareName}/receivedAssets</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/receivedInvitations</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/receivedInvitations/{receivedInvitationName}</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/receivedInvitations/{receivedInvitationName}:reject</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/receivedShares</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/receivedShares/{receivedShareName}</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/sentShareInvitations</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}/sentShareInvitations/{sentShareInvitationName}</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares</t>
+  </si>
+  <si>
+    <t>https://{accountName}.purview.azure.com/share/sentShares/{sentShareName}</t>
   </si>
 </sst>
 </file>
@@ -4154,7 +4068,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F11FDB1-5E01-487A-9C37-FAA9F7174453}" name="Table1" displayName="Table1" ref="A1:K199" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F11FDB1-5E01-487A-9C37-FAA9F7174453}" name="Table1" displayName="Table1" ref="A1:K230" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K199">
     <sortCondition ref="H1:H199"/>
   </sortState>
@@ -4170,17 +4084,6 @@
     <tableColumn id="9" xr3:uid="{4ACDF120-F277-4CCA-A233-63A53A220CF5}" name="API_VERSION" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{DFCF8009-8B07-4BAC-B0DC-08B99BADF19D}" name="PARAMS" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{06B6125B-6314-49C0-AC81-EA26DAEE9302}" name="PURVIEWCLI" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DABFC8ED-C5CD-4A0D-B3A2-46C59CB42436}" name="Table2" displayName="Table2" ref="A1:B180" totalsRowShown="0">
-  <autoFilter ref="A1:B180" xr:uid="{DABFC8ED-C5CD-4A0D-B3A2-46C59CB42436}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{748946FE-43E7-44E5-B8A5-41AC64A208AE}" name="Short"/>
-    <tableColumn id="2" xr3:uid="{3FF5F6C0-1E26-4F00-B1D1-93F6AFDED9BD}" name="Full"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4483,27 +4386,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B199"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="138.42578125" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.85546875" customWidth="1"/>
+    <col min="11" max="11" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>449</v>
       </c>
@@ -4538,7 +4444,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>CONCATENATE(mapping!$G5,mapping!$H5)</f>
         <v>PUThttps://{accountName}.purview.azure.com/account/collections/{collectionName}</v>
@@ -4572,7 +4478,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="str">
         <f>CONCATENATE(mapping!$G3,mapping!$H3)</f>
         <v>GEThttps://{accountName}.purview.azure.com/account</v>
@@ -4606,7 +4512,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>CONCATENATE(mapping!$G11,mapping!$H11)</f>
         <v>POSThttps://{accountName}.purview.azure.com/account/regeneratekeys</v>
@@ -4640,7 +4546,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>CONCATENATE(mapping!$G6,mapping!$H6)</f>
         <v>GEThttps://{accountName}.purview.azure.com/account/collections/{collectionName}</v>
@@ -4674,7 +4580,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>CONCATENATE(mapping!$G8,mapping!$H8)</f>
         <v>GEThttps://{accountName}.purview.azure.com/account/collections/{collectionName}/getChildCollectionNames</v>
@@ -4708,7 +4614,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f>CONCATENATE(mapping!$G7,mapping!$H7)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/account/collections/{collectionName}</v>
@@ -4742,7 +4648,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f>CONCATENATE(mapping!$G10,mapping!$H10)</f>
         <v>POSThttps://{accountName}.purview.azure.com/account/listkeys</v>
@@ -4776,7 +4682,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>CONCATENATE(mapping!$G9,mapping!$H9)</f>
         <v>GEThttps://{accountName}.purview.azure.com/account/collections/{collectionName}/getCollectionPath</v>
@@ -4810,7 +4716,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>CONCATENATE(mapping!$G2,mapping!$H2)</f>
         <v>PATCHhttps://{accountName}.purview.azure.com/account</v>
@@ -4844,7 +4750,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>CONCATENATE(mapping!$G4,mapping!$H4)</f>
         <v>GEThttps://{accountName}.purview.azure.com/account/collections</v>
@@ -4878,7 +4784,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>CONCATENATE(mapping!$G15,mapping!$H15)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/account/resourceSetRuleConfigs/defaultResourceSetRuleConfig</v>
@@ -4912,7 +4818,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>CONCATENATE(mapping!$G12,mapping!$H12)</f>
         <v>GEThttps://{accountName}.purview.azure.com/account/resourceSetRuleConfigs</v>
@@ -4946,7 +4852,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>CONCATENATE(mapping!$G14,mapping!$H14)</f>
         <v>GEThttps://{accountName}.purview.azure.com/account/resourceSetRuleConfigs/defaultResourceSetRuleConfig</v>
@@ -4980,7 +4886,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>CONCATENATE(mapping!$G13,mapping!$H13)</f>
         <v>PUThttps://{accountName}.purview.azure.com/account/resourceSetRuleConfigs/defaultResourceSetRuleConfig</v>
@@ -5014,7 +4920,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>CONCATENATE(mapping!$G35,mapping!$H35)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/classifications</v>
@@ -5048,7 +4954,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>CONCATENATE(mapping!$G36,mapping!$H36)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/classifications</v>
@@ -5082,7 +4988,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>CONCATENATE(mapping!$G48,mapping!$H48)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}/labels</v>
@@ -5118,7 +5024,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>CONCATENATE(mapping!$G38,mapping!$H38)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/labels</v>
@@ -5154,7 +5060,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>CONCATENATE(mapping!$G32,mapping!$H32)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/classification/{classificationName}</v>
@@ -5188,7 +5094,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>CONCATENATE(mapping!$G51,mapping!$H51)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary</v>
@@ -5222,7 +5128,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>CONCATENATE(mapping!$G46,mapping!$H46)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}/classifications</v>
@@ -5256,7 +5162,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="26" t="s">
         <v>480</v>
@@ -5265,29 +5171,29 @@
         <v>489</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>960</v>
+        <v>810</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>972</v>
+        <v>822</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>984</v>
+        <v>834</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1007</v>
+        <v>857</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="26" t="s">
         <v>480</v>
@@ -5296,29 +5202,29 @@
         <v>489</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>957</v>
+        <v>807</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>969</v>
+        <v>819</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>981</v>
+        <v>831</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1008</v>
+        <v>858</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>CONCATENATE(mapping!$G49,mapping!$H49)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}/labels</v>
@@ -5354,7 +5260,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>CONCATENATE(mapping!$G42,mapping!$H42)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}</v>
@@ -5388,7 +5294,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f>CONCATENATE(mapping!$G37,mapping!$H37)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/header</v>
@@ -5422,7 +5328,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="26" t="s">
         <v>480</v>
@@ -5431,31 +5337,31 @@
         <v>489</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>955</v>
+        <v>805</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>967</v>
+        <v>817</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>979</v>
+        <v>829</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>1009</v>
+        <v>859</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>987</v>
+        <v>837</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="26" t="s">
         <v>480</v>
@@ -5464,29 +5370,29 @@
         <v>489</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>956</v>
+        <v>806</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>968</v>
+        <v>818</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>980</v>
+        <v>830</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>1009</v>
+        <v>859</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="26" t="s">
         <v>480</v>
@@ -5495,29 +5401,29 @@
         <v>489</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>958</v>
+        <v>808</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>982</v>
+        <v>832</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>1010</v>
+        <v>860</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="26" t="s">
         <v>480</v>
@@ -5526,29 +5432,29 @@
         <v>489</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>959</v>
+        <v>809</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>971</v>
+        <v>821</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>983</v>
+        <v>833</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>1010</v>
+        <v>860</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f>CONCATENATE(mapping!$G44,mapping!$H44)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}/classification/{classificationName}</v>
@@ -5582,7 +5488,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="str">
         <f>CONCATENATE(mapping!$G40,mapping!$H40)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/labels</v>
@@ -5616,7 +5522,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="str">
         <f>CONCATENATE(mapping!$G52,mapping!$H52)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}</v>
@@ -5650,7 +5556,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="str">
         <f>CONCATENATE(mapping!$G33,mapping!$H33)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/classification/{classificationName}</v>
@@ -5684,7 +5590,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="str">
         <f>CONCATENATE(mapping!$G45,mapping!$H45)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}/classifications</v>
@@ -5718,7 +5624,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="str">
         <f>CONCATENATE(mapping!$G47,mapping!$H47)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}/labels</v>
@@ -5752,7 +5658,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="26" t="s">
         <v>480</v>
@@ -5761,29 +5667,29 @@
         <v>489</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>949</v>
+        <v>799</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>961</v>
+        <v>811</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>973</v>
+        <v>823</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>1011</v>
+        <v>861</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="26" t="s">
         <v>480</v>
@@ -5792,29 +5698,29 @@
         <v>489</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>951</v>
+        <v>801</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>963</v>
+        <v>813</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>1011</v>
+        <v>861</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="26" t="s">
         <v>480</v>
@@ -5823,29 +5729,29 @@
         <v>489</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>953</v>
+        <v>803</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>965</v>
+        <v>815</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>977</v>
+        <v>827</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>1011</v>
+        <v>861</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="str">
         <f>CONCATENATE(mapping!$G50,mapping!$H50)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary</v>
@@ -5879,7 +5785,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="str">
         <f>CONCATENATE(mapping!$G43,mapping!$H43)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}</v>
@@ -5913,7 +5819,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="str">
         <f>CONCATENATE(mapping!$G39,mapping!$H39)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/labels</v>
@@ -5947,7 +5853,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="str">
         <f>CONCATENATE(mapping!$G41,mapping!$H41)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/uniqueAttribute/type/{typeName}</v>
@@ -5981,7 +5887,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="str">
         <f>CONCATENATE(mapping!$G53,mapping!$H53)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}</v>
@@ -6015,7 +5921,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="str">
         <f>CONCATENATE(mapping!$G34,mapping!$H34)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/classifications</v>
@@ -6049,7 +5955,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="26" t="s">
         <v>480</v>
@@ -6058,31 +5964,31 @@
         <v>489</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>962</v>
+        <v>812</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>974</v>
+        <v>824</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>1014</v>
+        <v>864</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>986</v>
+        <v>836</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="26" t="s">
         <v>480</v>
@@ -6091,31 +5997,31 @@
         <v>489</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>952</v>
+        <v>802</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>964</v>
+        <v>814</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>976</v>
+        <v>826</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>1014</v>
+        <v>864</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>986</v>
+        <v>836</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="26" t="s">
         <v>480</v>
@@ -6124,31 +6030,31 @@
         <v>489</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>954</v>
+        <v>804</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>966</v>
+        <v>816</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>978</v>
+        <v>828</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>1014</v>
+        <v>864</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>986</v>
+        <v>836</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="str">
         <f>CONCATENATE(mapping!$G55,mapping!$H55)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}/categories</v>
@@ -6182,7 +6088,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="str">
         <f>CONCATENATE(mapping!$G74,mapping!$H74)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/terms</v>
@@ -6216,7 +6122,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="str">
         <f>CONCATENATE(mapping!$G86,mapping!$H86)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/businessmetadatadef/name/{name}</v>
@@ -6250,7 +6156,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="str">
         <f>CONCATENATE(mapping!$G67,mapping!$H67)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/category/{categoryGuid}/related</v>
@@ -6284,7 +6190,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="str">
         <f>CONCATENATE(mapping!$G60,mapping!$H60)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}/terms/headers</v>
@@ -6318,7 +6224,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="str">
         <f>CONCATENATE(mapping!$G75,mapping!$H75)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/terms/{termGuid}/assignedEntities</v>
@@ -6352,7 +6258,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="str">
         <f>CONCATENATE(mapping!$G76,mapping!$H76)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/terms/{termGuid}/assignedEntities</v>
@@ -6386,7 +6292,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="str">
         <f>CONCATENATE(mapping!$G65,mapping!$H65)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/category/{categoryGuid}</v>
@@ -6420,7 +6326,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="str">
         <f>CONCATENATE(mapping!$G82,mapping!$H82)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/relationship</v>
@@ -6454,7 +6360,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="str">
         <f>CONCATENATE(mapping!$G78,mapping!$H78)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/terms/{termGuid}/assignedEntities</v>
@@ -6488,7 +6394,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="str">
         <f>CONCATENATE(mapping!$G77,mapping!$H77)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/terms/{termGuid}/assignedEntities</v>
@@ -6522,7 +6428,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="str">
         <f>CONCATENATE(mapping!$G56,mapping!$H56)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}/categories/headers</v>
@@ -6556,7 +6462,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="str">
         <f>CONCATENATE(mapping!$G57,mapping!$H57)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}/detailed</v>
@@ -6590,7 +6496,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="str">
         <f>CONCATENATE(mapping!$G87,mapping!$H87)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/classificationdef/guid/{guid}</v>
@@ -6624,7 +6530,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="str">
         <f>CONCATENATE(mapping!$G68,mapping!$H68)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/category/{categoryGuid}/terms</v>
@@ -6658,7 +6564,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="str">
         <f>CONCATENATE(mapping!$G61,mapping!$H61)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/categories</v>
@@ -6692,7 +6598,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>CONCATENATE(mapping!$G83,mapping!$H83)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/relationship/guid/{guid}</v>
@@ -6726,7 +6632,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="str">
         <f>CONCATENATE(mapping!$G79,mapping!$H79)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/terms/{termGuid}/related</v>
@@ -6760,7 +6666,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>CONCATENATE(mapping!$G73,mapping!$H73)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/term/{termGuid}/partial</v>
@@ -6794,7 +6700,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="str">
         <f>CONCATENATE(mapping!$G58,mapping!$H58)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}/partial</v>
@@ -6828,7 +6734,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="str">
         <f>CONCATENATE(mapping!$G88,mapping!$H88)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/classificationdef/name/{name}</v>
@@ -6862,7 +6768,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="str">
         <f>CONCATENATE(mapping!$G69,mapping!$H69)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/term</v>
@@ -6896,7 +6802,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="str">
         <f>CONCATENATE(mapping!$G62,mapping!$H62)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/category</v>
@@ -6930,7 +6836,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="str">
         <f>CONCATENATE(mapping!$G84,mapping!$H84)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/relationship/guid/{guid}</v>
@@ -6964,7 +6870,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="str">
         <f>CONCATENATE(mapping!$G59,mapping!$H59)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}/terms</v>
@@ -6998,7 +6904,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="str">
         <f>CONCATENATE(mapping!$G85,mapping!$H85)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/businessmetadatadef/guid/{guid}</v>
@@ -7032,7 +6938,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>CONCATENATE(mapping!$G54,mapping!$H54)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/{glossaryGuid}</v>
@@ -7066,7 +6972,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="str">
         <f>CONCATENATE(mapping!$G66,mapping!$H66)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/category/{categoryGuid}/partial</v>
@@ -7100,7 +7006,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="str">
         <f>CONCATENATE(mapping!$G63,mapping!$H63)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/category/{categoryGuid}</v>
@@ -7134,7 +7040,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="str">
         <f>CONCATENATE(mapping!$G80,mapping!$H80)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/lineage/{guid}</v>
@@ -7168,7 +7074,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="str">
         <f>CONCATENATE(mapping!$G89,mapping!$H89)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/entitydef/guid/{guid}</v>
@@ -7204,7 +7110,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="str">
         <f>CONCATENATE(mapping!$G94,mapping!$H94)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/relationshipdef/name/{name}</v>
@@ -7238,7 +7144,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="str">
         <f>CONCATENATE(mapping!$G91,mapping!$H91)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/enumdef/guid/{guid}</v>
@@ -7272,7 +7178,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="str">
         <f>CONCATENATE(mapping!$G93,mapping!$H93)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/relationshipdef/guid/{guid}</v>
@@ -7306,7 +7212,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="str">
         <f>CONCATENATE(mapping!$G92,mapping!$H92)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/enumdef/name/{name}</v>
@@ -7340,7 +7246,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="12" t="s">
         <v>480</v>
@@ -7349,29 +7255,29 @@
         <v>552</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1003</v>
+        <v>853</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>1004</v>
+        <v>854</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>1013</v>
+        <v>863</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="12" t="s">
         <v>480</v>
@@ -7380,29 +7286,29 @@
         <v>552</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1001</v>
+        <v>851</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>1002</v>
+        <v>852</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>1005</v>
+        <v>855</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>1012</v>
+        <v>862</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>985</v>
+        <v>835</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="str">
         <f>CONCATENATE(mapping!$G99,mapping!$H99)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/typedef/name/{name}</v>
@@ -7436,7 +7342,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="str">
         <f>CONCATENATE(mapping!$G100,mapping!$H100)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/typedef/name/{name}</v>
@@ -7470,7 +7376,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="str">
         <f>CONCATENATE(mapping!$G101,mapping!$H101)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/typedefs</v>
@@ -7504,7 +7410,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="str">
         <f>CONCATENATE(mapping!$G102,mapping!$H102)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/typedefs</v>
@@ -7538,7 +7444,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="str">
         <f>CONCATENATE(mapping!$G103,mapping!$H103)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/typedefs</v>
@@ -7572,7 +7478,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="str">
         <f>CONCATENATE(mapping!$G104,mapping!$H104)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/typedefs</v>
@@ -7606,7 +7512,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="str">
         <f>CONCATENATE(mapping!$G105,mapping!$H105)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/typedefs/headers</v>
@@ -7640,7 +7546,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="str">
         <f>CONCATENATE(mapping!$G106,mapping!$H106)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/browse</v>
@@ -7674,7 +7580,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="str">
         <f>CONCATENATE(mapping!$G164,mapping!$H164)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/filters/custom</v>
@@ -7696,7 +7602,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="str">
         <f>CONCATENATE(mapping!$G107,mapping!$H107)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/collections/{collection}/entity</v>
@@ -7730,7 +7636,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="str">
         <f>CONCATENATE(mapping!$G108,mapping!$H108)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/collections/{collection}/entity/bulk</v>
@@ -7764,7 +7670,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="str">
         <f>CONCATENATE(mapping!$G111,mapping!$H111)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/glossary/{glossaryGuid}/terms/import</v>
@@ -7798,7 +7704,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="str">
         <f>CONCATENATE(mapping!$G112,mapping!$H112)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/glossary/name/{glossaryName}/terms</v>
@@ -7832,7 +7738,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="str">
         <f>CONCATENATE(mapping!$G96,mapping!$H96)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/structdef/guid/{guid}</v>
@@ -7866,7 +7772,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="str">
         <f>CONCATENATE(mapping!$G114,mapping!$H114)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/glossary/terms/import/{operationGuid}</v>
@@ -7900,7 +7806,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="str">
         <f>CONCATENATE(mapping!$G95,mapping!$H95)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/statistics</v>
@@ -7934,7 +7840,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="str">
         <f>CONCATENATE(mapping!$G98,mapping!$H98)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/typedef/guid/{guid}</v>
@@ -7968,7 +7874,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="str">
         <f>CONCATENATE(mapping!$G97,mapping!$H97)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/structdef/name/{name}</v>
@@ -8002,7 +7908,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="str">
         <f>CONCATENATE(mapping!$G113,mapping!$H113)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/glossary/name/{glossaryName}/terms/import</v>
@@ -8036,7 +7942,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="str">
         <f>CONCATENATE(mapping!$G29,mapping!$H29)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/businessmetadata</v>
@@ -8070,7 +7976,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="str">
         <f>CONCATENATE(mapping!$G25,mapping!$H25)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}</v>
@@ -8104,7 +8010,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="str">
         <f>CONCATENATE(mapping!$G26,mapping!$H26)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}</v>
@@ -8138,7 +8044,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="str">
         <f>CONCATENATE(mapping!$G27,mapping!$H27)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}</v>
@@ -8172,7 +8078,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="str">
         <f>CONCATENATE(mapping!$G64,mapping!$H64)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/category/{categoryGuid}</v>
@@ -8206,7 +8112,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="str">
         <f>CONCATENATE(mapping!$G71,mapping!$H71)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/term/{termGuid}</v>
@@ -8240,7 +8146,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="str">
         <f>CONCATENATE(mapping!$G81,mapping!$H81)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/relationship</v>
@@ -8274,7 +8180,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="str">
         <f>CONCATENATE(mapping!$G72,mapping!$H72)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/term/{termGuid}</v>
@@ -8308,7 +8214,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="str">
         <f>CONCATENATE(mapping!$G70,mapping!$H70)</f>
         <v>PUThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/glossary/term/{termGuid}</v>
@@ -8342,7 +8248,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="str">
         <f>CONCATENATE(mapping!$G90,mapping!$H90)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/types/entitydef/name/{name}</v>
@@ -8378,7 +8284,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
         <f>CONCATENATE(mapping!$G28,mapping!$H28)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/businessmetadata</v>
@@ -8412,7 +8318,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="str">
         <f>CONCATENATE(mapping!$G30,mapping!$H30)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/businessmetadata/{bmName}</v>
@@ -8446,7 +8352,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="str">
         <f>CONCATENATE(mapping!$G31,mapping!$H31)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/guid/{guid}/businessmetadata/{bmName}</v>
@@ -8480,7 +8386,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="str">
         <f>CONCATENATE(mapping!$G109,mapping!$H109)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/collections/{collection}/entity/moveHere</v>
@@ -8514,7 +8420,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
         <f>CONCATENATE(mapping!$G110,mapping!$H110)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/glossary/{glossaryGuid}/terms/export</v>
@@ -8548,7 +8454,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="str">
         <f>CONCATENATE(mapping!$G184,mapping!$H184)</f>
         <v>POSThttps://management.azure.com/providers/Microsoft.Purview/setDefaultAccount</v>
@@ -8570,7 +8476,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
         <f>CONCATENATE(mapping!$G185,mapping!$H185)</f>
         <v>GEThttps://management.azure.com/subscriptions/{subscriptionId}/providers/Microsoft.Purview/accounts</v>
@@ -8592,7 +8498,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="str">
         <f>CONCATENATE(mapping!$G179,mapping!$H179)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/systemScanRulesets/versions/{version}</v>
@@ -8614,7 +8520,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
         <f>CONCATENATE(mapping!$G180,mapping!$H180)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/systemScanRulesets/versions/latest</v>
@@ -8636,7 +8542,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="str">
         <f>CONCATENATE(mapping!$G181,mapping!$H181)</f>
         <v>GEThttps://management.azure.com/providers/Microsoft.Purview/getDefaultAccount</v>
@@ -8658,7 +8564,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="str">
         <f>CONCATENATE(mapping!$G182,mapping!$H182)</f>
         <v>GEThttps://management.azure.com/providers/Microsoft.Purview/operations</v>
@@ -8680,7 +8586,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="str">
         <f>CONCATENATE(mapping!$G183,mapping!$H183)</f>
         <v>POSThttps://management.azure.com/providers/Microsoft.Purview/removeDefaultAccount</v>
@@ -8702,7 +8608,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">
         <f>CONCATENATE(mapping!$G165,mapping!$H165)</f>
         <v>POSThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/run</v>
@@ -8724,7 +8630,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="str">
         <f>CONCATENATE(mapping!$G172,mapping!$H172)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/scanrulesets</v>
@@ -8748,7 +8654,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
         <f>CONCATENATE(mapping!$G174,mapping!$H174)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/scanrulesets/{scanRulesetName}</v>
@@ -8772,7 +8678,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="str">
         <f>CONCATENATE(mapping!$G173,mapping!$H173)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/scanrulesets/{scanRulesetName}</v>
@@ -8796,7 +8702,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
         <f>CONCATENATE(mapping!$G178,mapping!$H178)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/systemScanRulesets/versions</v>
@@ -8820,7 +8726,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="str">
         <f>CONCATENATE(mapping!$G176,mapping!$H176)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/systemScanRulesets</v>
@@ -8844,7 +8750,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="str">
         <f>CONCATENATE(mapping!$G175,mapping!$H175)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/scan/scanrulesets/{scanRulesetName}</v>
@@ -8868,7 +8774,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="str">
         <f>CONCATENATE(mapping!$G177,mapping!$H177)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/systemScanRulesets/datasources/{dataSourceType}</v>
@@ -8892,7 +8798,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="str">
         <f>CONCATENATE(mapping!$G119,mapping!$H119)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/types/termtemplatedef/guid/{guid}</v>
@@ -8926,7 +8832,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="str">
         <f>CONCATENATE(mapping!$G120,mapping!$H120)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/types/termtemplatedef/name/{name}</v>
@@ -8960,7 +8866,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
         <f>CONCATENATE(mapping!$G118,mapping!$H118)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/search/suggest</v>
@@ -8994,7 +8900,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="str">
         <f>CONCATENATE(mapping!$G121,mapping!$H121)</f>
         <v>GEThttps://{accountName}.purview.azure.com/mapanddiscover/reports/scanstatus2/summaries</v>
@@ -9028,7 +8934,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
         <f>CONCATENATE(mapping!$G144,mapping!$H144)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/classificationrules</v>
@@ -9062,7 +8968,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="str">
         <f>CONCATENATE(mapping!$G141,mapping!$H141)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/azureKeyVaults/{keyVaultName}</v>
@@ -9096,7 +9002,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="str">
         <f>CONCATENATE(mapping!$G143,mapping!$H143)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/scan/azureKeyVaults/{keyVaultName}</v>
@@ -9130,7 +9036,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="str">
         <f>CONCATENATE(mapping!$G142,mapping!$H142)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/azureKeyVaults/{keyVaultName}</v>
@@ -9164,7 +9070,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="str">
         <f>CONCATENATE(mapping!$G132,mapping!$H132)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/policystore/dataPolicies/{policyName}</v>
@@ -9198,7 +9104,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="str">
         <f>CONCATENATE(mapping!$G129,mapping!$H129)</f>
         <v>GEThttps://{accountName}.purview.azure.com/policystore/dataPolicies</v>
@@ -9232,7 +9138,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="str">
         <f>CONCATENATE(mapping!$G131,mapping!$H131)</f>
         <v>GEThttps://{accountName}.purview.azure.com/policystore/dataPolicies/{policyName}</v>
@@ -9266,7 +9172,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="str">
         <f>CONCATENATE(mapping!$G130,mapping!$H130)</f>
         <v>PUThttps://{accountName}.purview.azure.com/policystore/dataPolicies/{policyName}</v>
@@ -9300,7 +9206,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="str">
         <f>CONCATENATE(mapping!$G133,mapping!$H133)</f>
         <v>PUThttps://{accountName}.purview.azure.com/policystore/dataPolicies/{policyName}/scopes</v>
@@ -9334,7 +9240,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="str">
         <f>CONCATENATE(mapping!$G134,mapping!$H134)</f>
         <v>GEThttps://{accountName}.purview.azure.com/policystore/dataPolicies/{policyName}/scopes</v>
@@ -9370,7 +9276,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="str">
         <f>CONCATENATE(mapping!$G171,mapping!$H171)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/triggers/default</v>
@@ -9392,7 +9298,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="str">
         <f>CONCATENATE(mapping!$G166,mapping!$H166)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/runs</v>
@@ -9414,7 +9320,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="str">
         <f>CONCATENATE(mapping!$G169,mapping!$H169)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/triggers/default</v>
@@ -9436,7 +9342,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="str">
         <f>CONCATENATE(mapping!$G167,mapping!$H167)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/runs/{runId}</v>
@@ -9458,7 +9364,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="str">
         <f>CONCATENATE(mapping!$G168,mapping!$H168)</f>
         <v>POSThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/runs/{runId}/:cancel</v>
@@ -9480,7 +9386,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="str">
         <f>CONCATENATE(mapping!$G138,mapping!$H138)</f>
         <v>GEThttps://{accountName}.purview.azure.com/policyStore/metadataPolicies/{policyId}</v>
@@ -9514,7 +9420,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="str">
         <f>CONCATENATE(mapping!$G135,mapping!$H135)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/policystore/dataPolicies/{policyName}/scopes/{scopeName}</v>
@@ -9548,7 +9454,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="str">
         <f>CONCATENATE(mapping!$G137,mapping!$H137)</f>
         <v>PUThttps://{accountName}.purview.azure.com/policyStore/metadataPolicies/{policyId}</v>
@@ -9582,7 +9488,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="str">
         <f>CONCATENATE(mapping!$G136,mapping!$H136)</f>
         <v>GEThttps://{accountName}.purview.azure.com/policyStore/metadataPolicies</v>
@@ -9616,7 +9522,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="str">
         <f>CONCATENATE(mapping!$G155,mapping!$H155)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/datasources</v>
@@ -9650,7 +9556,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="str">
         <f>CONCATENATE(mapping!$G152,mapping!$H152)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/credentials/{credentialName}</v>
@@ -9684,7 +9590,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="str">
         <f>CONCATENATE(mapping!$G154,mapping!$H154)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/scan/credentials/{credentialName}</v>
@@ -9718,7 +9624,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="str">
         <f>CONCATENATE(mapping!$G153,mapping!$H153)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/credentials/{credentialName}</v>
@@ -9752,7 +9658,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="str">
         <f>CONCATENATE(mapping!$G139,mapping!$H139)</f>
         <v>GEThttps://{accountName}.purview.azure.com/policyStore/metadataRoles</v>
@@ -9786,7 +9692,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="str">
         <f>CONCATENATE(mapping!$G140,mapping!$H140)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/azureKeyVaults</v>
@@ -9820,7 +9726,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="str">
         <f>CONCATENATE(mapping!$G170,mapping!$H170)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/triggers/default</v>
@@ -9842,7 +9748,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="str">
         <f>CONCATENATE(mapping!$G146,mapping!$H146)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/classificationrules/{classificationRuleName}</v>
@@ -9876,7 +9782,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="str">
         <f>CONCATENATE(mapping!$G147,mapping!$H147)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/scan/classificationrules/{classificationRuleName}</v>
@@ -9908,7 +9814,7 @@
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="str">
         <f>CONCATENATE(mapping!$G145,mapping!$H145)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/classificationrules/{classificationRuleName}</v>
@@ -9942,7 +9848,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="str">
         <f>CONCATENATE(mapping!$G161,mapping!$H161)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}</v>
@@ -9976,7 +9882,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="str">
         <f>CONCATENATE(mapping!$G163,mapping!$H163)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}/filters/custom</v>
@@ -10010,7 +9916,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="str">
         <f>CONCATENATE(mapping!$G162,mapping!$H162)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}</v>
@@ -10044,7 +9950,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="str">
         <f>CONCATENATE(mapping!$G151,mapping!$H151)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/credentials</v>
@@ -10078,7 +9984,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="str">
         <f>CONCATENATE(mapping!$G148,mapping!$H148)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/classificationrules/{classificationRuleName}/versions</v>
@@ -10112,7 +10018,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="str">
         <f>CONCATENATE(mapping!$G150,mapping!$H150)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/collections/{collectionName}/listDataSources</v>
@@ -10146,7 +10052,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="str">
         <f>CONCATENATE(mapping!$G149,mapping!$H149)</f>
         <v>POSThttps://{accountName}.purview.azure.com/scan/classificationrules/{classificationRuleName}/versions/{classificationRuleVersion}/:tag</v>
@@ -10180,7 +10086,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="str">
         <f>CONCATENATE(mapping!$G159,mapping!$H159)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans</v>
@@ -10214,7 +10120,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="str">
         <f>CONCATENATE(mapping!$G156,mapping!$H156)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}</v>
@@ -10248,7 +10154,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="str">
         <f>CONCATENATE(mapping!$G160,mapping!$H160)</f>
         <v>PUThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}/scans/{scanName}</v>
@@ -10282,7 +10188,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="str">
         <f>CONCATENATE(mapping!$G157,mapping!$H157)</f>
         <v>GEThttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}</v>
@@ -10316,7 +10222,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="str">
         <f>CONCATENATE(mapping!$G158,mapping!$H158)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/scan/datasources/{dataSourceName}</v>
@@ -10350,7 +10256,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="str">
         <f>CONCATENATE(mapping!$G115,mapping!$H115)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/lineage/{guid}/next</v>
@@ -10384,7 +10290,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="str">
         <f>CONCATENATE(mapping!$G122,mapping!$H122)</f>
         <v>GEThttps://{accountName}.purview.azure.com/mapanddiscover/reports/scanstatus2/summariesbyts</v>
@@ -10416,7 +10322,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="str">
         <f>CONCATENATE(mapping!$G116,mapping!$H116)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/search/autocomplete</v>
@@ -10450,7 +10356,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="str">
         <f>CONCATENATE(mapping!$G117,mapping!$H117)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/search/query</v>
@@ -10482,7 +10388,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="str">
         <f>CONCATENATE(mapping!$G22,mapping!$H22)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/bulk/uniqueAttribute/type/{typeName}</v>
@@ -10514,7 +10420,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="22" t="str">
         <f>CONCATENATE(mapping!$G17,mapping!$H17)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/bulk</v>
@@ -10546,7 +10452,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="str">
         <f>CONCATENATE(mapping!$G21,mapping!$H21)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/bulk/setClassifications</v>
@@ -10578,7 +10484,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="22" t="str">
         <f>CONCATENATE(mapping!$G18,mapping!$H18)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/bulk</v>
@@ -10610,7 +10516,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="22" t="str">
         <f>CONCATENATE(mapping!$G24,mapping!$H24)</f>
         <v>GEThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/businessmetadata/import/template</v>
@@ -10642,7 +10548,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="22" t="str">
         <f>CONCATENATE(mapping!$G20,mapping!$H20)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/bulk/classification</v>
@@ -10674,7 +10580,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="22" t="str">
         <f>CONCATENATE(mapping!$G19,mapping!$H19)</f>
         <v>DELETEhttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/bulk</v>
@@ -10706,7 +10612,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="22" t="str">
         <f>CONCATENATE(mapping!$G16,mapping!$H16)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity</v>
@@ -10738,7 +10644,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="22" t="str">
         <f>CONCATENATE(mapping!$G23,mapping!$H23)</f>
         <v>POSThttps://{accountName}.purview.azure.com/catalog/api/atlas/v2/entity/businessmetadata/import</v>
@@ -10770,7 +10676,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="22" t="str">
         <f>CONCATENATE(mapping!$G126,mapping!$H126)</f>
         <v>GEThttps://{accountName}.purview.azure.com/mapanddiscover/reports/serverless/asset2/tags/getSnapshot</v>
@@ -10802,7 +10708,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="22" t="str">
         <f>CONCATENATE(mapping!$G123,mapping!$H123)</f>
         <v>GEThttps://{accountName}.purview.azure.com/mapanddiscover/reports/serverless/asset2/assetDistribution/getSnapshot</v>
@@ -10834,7 +10740,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="22" t="str">
         <f>CONCATENATE(mapping!$G125,mapping!$H125)</f>
         <v>GEThttps://{accountName}.purview.azure.com/mapanddiscover/reports/serverless/asset2/filesWithoutResourceSet/getSnapshot</v>
@@ -10866,7 +10772,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="22" t="str">
         <f>CONCATENATE(mapping!$G124,mapping!$H124)</f>
         <v>GEThttps://{accountName}.purview.azure.com/mapanddiscover/reports/serverless/asset2/filesAggregation/getSnapshot</v>
@@ -10898,7 +10804,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="str">
         <f>CONCATENATE(mapping!$G128,mapping!$H128)</f>
         <v>GEThttps://{accountName}.purview.azure.com/policystore/collections/{collectionName}/metadataPolicy</v>
@@ -10930,7 +10836,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="str">
         <f>CONCATENATE(mapping!$G127,mapping!$H127)</f>
         <v>GEThttps://{accountName}.purview.azure.com/mapanddiscover/reports/serverless/asset2/tags/timeSeries</v>
@@ -10962,9 +10868,963 @@
         <v>726</v>
       </c>
     </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="22"/>
+      <c r="B200" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J200" t="s">
+        <v>944</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="22"/>
+      <c r="B201" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="22"/>
+      <c r="B202" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="22"/>
+      <c r="B203" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="22"/>
+      <c r="B204" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="22"/>
+      <c r="B205" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J205" t="s">
+        <v>945</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="22"/>
+      <c r="B206" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="22"/>
+      <c r="B207" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="22"/>
+      <c r="B208" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="22"/>
+      <c r="B209" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J209" t="s">
+        <v>945</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="22"/>
+      <c r="B210" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="22"/>
+      <c r="B211" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="22"/>
+      <c r="B212" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="22"/>
+      <c r="B213" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="22"/>
+      <c r="B214" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="22"/>
+      <c r="B215" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J215" t="s">
+        <v>944</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="22"/>
+      <c r="B216" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J216" t="s">
+        <v>945</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="22"/>
+      <c r="B217" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="22"/>
+      <c r="B218" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="22"/>
+      <c r="B219" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J219" t="s">
+        <v>945</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="22"/>
+      <c r="B220" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="22"/>
+      <c r="B221" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="22"/>
+      <c r="B222" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="22"/>
+      <c r="B223" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J223" t="s">
+        <v>945</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="22"/>
+      <c r="B224" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="22"/>
+      <c r="B225" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="22"/>
+      <c r="B226" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="22"/>
+      <c r="B227" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J227" t="s">
+        <v>945</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="22"/>
+      <c r="B228" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="22"/>
+      <c r="B229" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="21"/>
+      <c r="B230" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="G230" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G199">
+  <conditionalFormatting sqref="G2:G230">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
@@ -10990,1469 +11850,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946D3487-705C-4F00-B617-2E126542661E}">
-  <dimension ref="A1:B180"/>
-  <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>948</v>
-      </c>
-      <c r="B1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>612</v>
-      </c>
-      <c r="B4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>620</v>
-      </c>
-      <c r="B6" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>618</v>
-      </c>
-      <c r="B7" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B8" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>621</v>
-      </c>
-      <c r="B9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>625</v>
-      </c>
-      <c r="B11" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>616</v>
-      </c>
-      <c r="B12" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>622</v>
-      </c>
-      <c r="B13" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>614</v>
-      </c>
-      <c r="B14" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>615</v>
-      </c>
-      <c r="B15" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>636</v>
-      </c>
-      <c r="B16" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>644</v>
-      </c>
-      <c r="B17" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>645</v>
-      </c>
-      <c r="B18" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>641</v>
-      </c>
-      <c r="B19" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>660</v>
-      </c>
-      <c r="B20" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>642</v>
-      </c>
-      <c r="B21" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>634</v>
-      </c>
-      <c r="B22" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>635</v>
-      </c>
-      <c r="B23" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>643</v>
-      </c>
-      <c r="B24" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>646</v>
-      </c>
-      <c r="B25" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>647</v>
-      </c>
-      <c r="B26" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>649</v>
-      </c>
-      <c r="B27" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>648</v>
-      </c>
-      <c r="B28" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>650</v>
-      </c>
-      <c r="B29" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>658</v>
-      </c>
-      <c r="B30" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>661</v>
-      </c>
-      <c r="B31" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>659</v>
-      </c>
-      <c r="B32" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>662</v>
-      </c>
-      <c r="B33" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>651</v>
-      </c>
-      <c r="B34" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>657</v>
-      </c>
-      <c r="B35" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>655</v>
-      </c>
-      <c r="B36" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>653</v>
-      </c>
-      <c r="B37" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>654</v>
-      </c>
-      <c r="B38" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>656</v>
-      </c>
-      <c r="B39" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>652</v>
-      </c>
-      <c r="B40" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>664</v>
-      </c>
-      <c r="B41" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>665</v>
-      </c>
-      <c r="B42" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>666</v>
-      </c>
-      <c r="B43" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>667</v>
-      </c>
-      <c r="B44" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>668</v>
-      </c>
-      <c r="B45" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>663</v>
-      </c>
-      <c r="B46" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>673</v>
-      </c>
-      <c r="B47" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>680</v>
-      </c>
-      <c r="B48" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>669</v>
-      </c>
-      <c r="B49" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>670</v>
-      </c>
-      <c r="B50" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>671</v>
-      </c>
-      <c r="B51" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>672</v>
-      </c>
-      <c r="B52" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>692</v>
-      </c>
-      <c r="B53" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>693</v>
-      </c>
-      <c r="B54" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>689</v>
-      </c>
-      <c r="B55" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>688</v>
-      </c>
-      <c r="B56" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>694</v>
-      </c>
-      <c r="B57" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>690</v>
-      </c>
-      <c r="B58" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>691</v>
-      </c>
-      <c r="B59" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>676</v>
-      </c>
-      <c r="B60" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>682</v>
-      </c>
-      <c r="B61" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>683</v>
-      </c>
-      <c r="B62" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>677</v>
-      </c>
-      <c r="B63" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>686</v>
-      </c>
-      <c r="B64" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>681</v>
-      </c>
-      <c r="B65" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>674</v>
-      </c>
-      <c r="B66" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>678</v>
-      </c>
-      <c r="B67" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>685</v>
-      </c>
-      <c r="B68" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>675</v>
-      </c>
-      <c r="B69" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>684</v>
-      </c>
-      <c r="B70" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>679</v>
-      </c>
-      <c r="B71" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>687</v>
-      </c>
-      <c r="B72" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>785</v>
-      </c>
-      <c r="B73" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>786</v>
-      </c>
-      <c r="B74" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>787</v>
-      </c>
-      <c r="B75" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>790</v>
-      </c>
-      <c r="B76" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>791</v>
-      </c>
-      <c r="B77" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>788</v>
-      </c>
-      <c r="B78" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>789</v>
-      </c>
-      <c r="B79" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>695</v>
-      </c>
-      <c r="B80" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>696</v>
-      </c>
-      <c r="B81" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>626</v>
-      </c>
-      <c r="B82" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>627</v>
-      </c>
-      <c r="B83" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>628</v>
-      </c>
-      <c r="B84" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>714</v>
-      </c>
-      <c r="B85" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>629</v>
-      </c>
-      <c r="B86" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>723</v>
-      </c>
-      <c r="B87" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>632</v>
-      </c>
-      <c r="B88" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>721</v>
-      </c>
-      <c r="B89" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>726</v>
-      </c>
-      <c r="B90" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>722</v>
-      </c>
-      <c r="B91" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>630</v>
-      </c>
-      <c r="B92" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>631</v>
-      </c>
-      <c r="B93" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>724</v>
-      </c>
-      <c r="B94" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>725</v>
-      </c>
-      <c r="B95" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>715</v>
-      </c>
-      <c r="B96" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>716</v>
-      </c>
-      <c r="B97" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>633</v>
-      </c>
-      <c r="B98" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>778</v>
-      </c>
-      <c r="B99" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>779</v>
-      </c>
-      <c r="B100" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>780</v>
-      </c>
-      <c r="B101" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>781</v>
-      </c>
-      <c r="B102" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>719</v>
-      </c>
-      <c r="B103" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>782</v>
-      </c>
-      <c r="B104" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>783</v>
-      </c>
-      <c r="B105" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>718</v>
-      </c>
-      <c r="B106" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>717</v>
-      </c>
-      <c r="B107" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>720</v>
-      </c>
-      <c r="B108" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>697</v>
-      </c>
-      <c r="B109" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>698</v>
-      </c>
-      <c r="B110" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>700</v>
-      </c>
-      <c r="B111" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>699</v>
-      </c>
-      <c r="B112" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>743</v>
-      </c>
-      <c r="B113" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>728</v>
-      </c>
-      <c r="B114" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>772</v>
-      </c>
-      <c r="B115" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>734</v>
-      </c>
-      <c r="B116" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>740</v>
-      </c>
-      <c r="B117" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>750</v>
-      </c>
-      <c r="B118" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>746</v>
-      </c>
-      <c r="B119" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>759</v>
-      </c>
-      <c r="B120" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>727</v>
-      </c>
-      <c r="B121" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>773</v>
-      </c>
-      <c r="B122" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>733</v>
-      </c>
-      <c r="B123" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>737</v>
-      </c>
-      <c r="B124" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>739</v>
-      </c>
-      <c r="B125" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>749</v>
-      </c>
-      <c r="B126" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>745</v>
-      </c>
-      <c r="B127" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>758</v>
-      </c>
-      <c r="B128" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>729</v>
-      </c>
-      <c r="B129" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>731</v>
-      </c>
-      <c r="B130" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>730</v>
-      </c>
-      <c r="B131" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>771</v>
-      </c>
-      <c r="B132" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>735</v>
-      </c>
-      <c r="B133" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>736</v>
-      </c>
-      <c r="B134" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>738</v>
-      </c>
-      <c r="B135" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>741</v>
-      </c>
-      <c r="B136" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>742</v>
-      </c>
-      <c r="B137" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>751</v>
-      </c>
-      <c r="B138" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>744</v>
-      </c>
-      <c r="B139" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>747</v>
-      </c>
-      <c r="B140" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>748</v>
-      </c>
-      <c r="B141" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>752</v>
-      </c>
-      <c r="B142" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>753</v>
-      </c>
-      <c r="B143" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>755</v>
-      </c>
-      <c r="B144" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>754</v>
-      </c>
-      <c r="B145" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>757</v>
-      </c>
-      <c r="B146" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>756</v>
-      </c>
-      <c r="B147" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>760</v>
-      </c>
-      <c r="B148" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>764</v>
-      </c>
-      <c r="B149" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>732</v>
-      </c>
-      <c r="B150" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>637</v>
-      </c>
-      <c r="B151" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>638</v>
-      </c>
-      <c r="B152" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>639</v>
-      </c>
-      <c r="B153" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>640</v>
-      </c>
-      <c r="B154" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>701</v>
-      </c>
-      <c r="B155" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>702</v>
-      </c>
-      <c r="B156" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>703</v>
-      </c>
-      <c r="B157" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>713</v>
-      </c>
-      <c r="B158" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>705</v>
-      </c>
-      <c r="B159" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>706</v>
-      </c>
-      <c r="B160" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>707</v>
-      </c>
-      <c r="B161" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>708</v>
-      </c>
-      <c r="B162" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>763</v>
-      </c>
-      <c r="B163" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>709</v>
-      </c>
-      <c r="B164" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>710</v>
-      </c>
-      <c r="B165" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>711</v>
-      </c>
-      <c r="B166" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>704</v>
-      </c>
-      <c r="B167" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>712</v>
-      </c>
-      <c r="B168" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>989</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>988</v>
-      </c>
-      <c r="B170" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>990</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>991</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>992</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>993</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>994</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>995</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>996</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>997</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>998</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>999</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
